--- a/biology/Histoire de la zoologie et de la botanique/William_Herbert_(botaniste)/William_Herbert_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Herbert_(botaniste)/William_Herbert_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Herbert est un botaniste et poète britannique, né le 12 janvier 1778 et mort le 28 mai 1847 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient un Bachelor of Arts en 1798 au Collège d'Exeter d’Oxford, puis un Master of Arts en 1802 au Morton College, puis, en 1808, des diplômes en droit pénal et en droit civil.
 Parallèlement à ses activités de juriste il étudie aussi la linguistique et il publie de nombreux ouvrages de botanique, notamment : Amaryllidacae (1837), Crocuses (1847), History of the Species of Crocus. Il s’intéresse particulièrement à l’hybridation des plantes à bulbes.
